--- a/src/main/resources/Excel/addexcel.xlsx
+++ b/src/main/resources/Excel/addexcel.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\Payrollproject\src\main\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>queen</t>
   </si>
@@ -42,6 +44,30 @@
   </si>
   <si>
     <t>1q2w3e4r</t>
+  </si>
+  <si>
+    <t>PAYROLL APPLICATION</t>
+  </si>
+  <si>
+    <t>Incorrect username or password.</t>
+  </si>
+  <si>
+    <t>TIMESHEETS</t>
+  </si>
+  <si>
+    <t>Invoice generated!!!</t>
+  </si>
+  <si>
+    <t>Are you sure you want to generate invoice?</t>
+  </si>
+  <si>
+    <t>CREATE TIMESHEET</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>CREATE CLIENT</t>
   </si>
 </sst>
 </file>
@@ -77,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -450,4 +479,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12893725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>